--- a/different_costs-grid-single_destination-100nodes-80_300flows.xlsx
+++ b/different_costs-grid-single_destination-100nodes-80_300flows.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Dropbox\doutorado\Doutorado\A-orientacao-kleber\artigo1-katia-leizer-kleber\resultados\resultados-custos-diferentes\data\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{678796A8-5F91-44C4-8FB0-2E8E7714DD78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3BB50DFC-2DD6-4135-ABE1-AE5AFA18D39B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="different_costs-grid-single_d" sheetId="1" r:id="rId1"/>
+    <sheet name="graphics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -640,6 +641,319 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>385244</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E70E749-48B3-45CA-A447-FB4D7D8EE286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="184150"/>
+          <a:ext cx="13796444" cy="4048095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>103033</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>61854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E4CA3B-5733-4733-BA0B-39282F91DAD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15194643" y="181429"/>
+          <a:ext cx="9827604" cy="6956139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>159387</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58F2BB3-1B29-4A09-8CF3-C3286C7ECADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25527000" y="181429"/>
+          <a:ext cx="4413887" cy="2627604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>18751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC2744C-8FDA-44A6-824F-BB60D90F0477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8001000"/>
+          <a:ext cx="9550400" cy="4590751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>543172</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A96DD01-AFF6-45FA-934C-CDAE8EA8B9BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609599" y="13512800"/>
+          <a:ext cx="9687173" cy="6337300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>184339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACA9CF9-507A-4DF6-A5DF-FA6149EE7885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="8001000"/>
+          <a:ext cx="8775700" cy="4565839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248A9924-6006-4239-A45B-D7D22D41049F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11048999" y="13525500"/>
+          <a:ext cx="11705168" cy="6299200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -939,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -6322,4 +6636,19 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE0FFAB-2E34-4ADA-9415-84BDF073ACC5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/different_costs-grid-single_destination-100nodes-80_300flows.xlsx
+++ b/different_costs-grid-single_destination-100nodes-80_300flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3BB50DFC-2DD6-4135-ABE1-AE5AFA18D39B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98596875-A227-436D-958D-C50F57445299}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,6 +951,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>423099</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>164937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AE91F4-F1EA-445B-A194-ED3443259683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31089600" y="184150"/>
+          <a:ext cx="8957499" cy="3847937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6642,8 +6686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE0FFAB-2E34-4ADA-9415-84BDF073ACC5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
